--- a/Bar_Chart/BangladeshSex.xlsx
+++ b/Bar_Chart/BangladeshSex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COS30045 Data Visualisation\Assignment_2\Bar_Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9136423-666B-4376-9315-3F0F39DF1B7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C610A69-0ECC-498F-AFEA-0D8B4A0215E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BC0A9CC1-B455-440A-8172-83FEFE0E1DA6}"/>
   </bookViews>
@@ -553,7 +553,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +622,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2514</v>
+        <v>1300</v>
+      </c>
+      <c r="C6">
+        <v>1214</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,7 +633,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>128</v>
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -638,7 +644,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>533</v>
+        <v>267</v>
+      </c>
+      <c r="C8">
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -646,7 +655,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,7 +666,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>173</v>
+        <v>90</v>
+      </c>
+      <c r="C10">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -662,7 +677,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1276</v>
+        <v>576</v>
+      </c>
+      <c r="C11">
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -670,7 +688,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>726</v>
+        <v>600</v>
+      </c>
+      <c r="C12">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -678,7 +699,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>33</v>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,7 +710,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -694,7 +721,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>328</v>
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -702,7 +732,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,7 +743,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -718,7 +754,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -726,7 +765,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>66</v>
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -734,7 +776,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -742,7 +787,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +798,10 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>624</v>
+        <v>200</v>
+      </c>
+      <c r="C22">
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -758,7 +809,10 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>308</v>
+        <v>130</v>
+      </c>
+      <c r="C23">
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -766,7 +820,10 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1214</v>
+        <v>614</v>
+      </c>
+      <c r="C24">
+        <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -774,7 +831,10 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -782,7 +842,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,7 +853,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>66</v>
+        <v>33</v>
+      </c>
+      <c r="C27">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -798,6 +864,9 @@
         <v>27</v>
       </c>
       <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>5</v>
       </c>
     </row>
@@ -817,7 +886,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -836,7 +908,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>2096</v>
+        <v>1196</v>
+      </c>
+      <c r="C32">
+        <v>900</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -844,7 +919,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -852,7 +930,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>19660</v>
+        <v>9860</v>
+      </c>
+      <c r="C34">
+        <v>9800</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -860,7 +941,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>185</v>
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -868,7 +952,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -876,7 +963,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>197</v>
+        <v>97</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -884,7 +974,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>160</v>
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -892,7 +985,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,7 +996,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>673</v>
+        <v>300</v>
+      </c>
+      <c r="C40">
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -908,7 +1007,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -916,7 +1018,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -935,7 +1040,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -943,7 +1051,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>2100</v>
+        <v>1100</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -951,7 +1062,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -961,13 +1075,19 @@
       <c r="B47">
         <v>0</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1148</v>
+        <v>448</v>
+      </c>
+      <c r="C48">
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -975,7 +1095,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>95</v>
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -983,7 +1106,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -991,7 +1117,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>46</v>
+        <v>21</v>
+      </c>
+      <c r="C51">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,6 +1162,9 @@
       </c>
       <c r="B55">
         <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">

--- a/Bar_Chart/BangladeshSex.xlsx
+++ b/Bar_Chart/BangladeshSex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COS30045 Data Visualisation\Assignment_2\Bar_Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C610A69-0ECC-498F-AFEA-0D8B4A0215E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3746CF-F732-42C5-903B-0712CA44E782}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BC0A9CC1-B455-440A-8172-83FEFE0E1DA6}"/>
   </bookViews>
